--- a/secure-coding-checklist.xlsx
+++ b/secure-coding-checklist.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuhyogon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\barrack\white_hat_school\secure_coding\secure-coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66CA3A9-A9D4-4FEF-AEB6-59725443A1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0BBCA2-D8B1-482D-A530-5A333BA4C3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15540" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="기능구현 함수" sheetId="2" r:id="rId1"/>
+    <sheet name="get_all_product" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1 (4)" sheetId="12" r:id="rId5"/>
+    <sheet name="Sheet1 (5)" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet1 (6)" sheetId="14" r:id="rId7"/>
+    <sheet name="Sheet1 (7)" sheetId="15" r:id="rId8"/>
+    <sheet name="Sheet1 (8)" sheetId="16" r:id="rId9"/>
+    <sheet name="Sheet1 (9)" sheetId="17" r:id="rId10"/>
+    <sheet name="Sheet1 (10)" sheetId="19" r:id="rId11"/>
+    <sheet name="Sheet1 (11)" sheetId="20" r:id="rId12"/>
+    <sheet name="Sheet1 (12)" sheetId="21" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="78">
   <si>
     <t>입력데이터검증및표현</t>
   </si>
@@ -136,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로그램 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구현 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,11 +168,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>streamlit_app.py 1~2, 137~138</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>streamlit_app.py (root)</t>
+    <t>함수명</t>
+  </si>
+  <si>
+    <t>코드 영역</t>
+  </si>
+  <si>
+    <t>기능</t>
+  </si>
+  <si>
+    <t>완료 여부</t>
+  </si>
+  <si>
+    <t>테스트 </t>
+  </si>
+  <si>
+    <t>결과</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>get_all_products</t>
+  </si>
+  <si>
+    <t>fast_api</t>
+  </si>
+  <si>
+    <t>상품 표시 기능</t>
+  </si>
+  <si>
+    <t>☐</t>
+  </si>
+  <si>
+    <t>카테고리, 검색 기능 구현 필요</t>
+  </si>
+  <si>
+    <t>상품 구매 기능</t>
+  </si>
+  <si>
+    <t>상품 상세 페이지, 결제 정보 입력 기능 구현 필요</t>
+  </si>
+  <si>
+    <t>외부 결제 API 연동</t>
+  </si>
+  <si>
+    <t>Stripe, PayPal API 연동 구현 필요</t>
+  </si>
+  <si>
+    <t>add_user</t>
+  </si>
+  <si>
+    <t>회원 가입 기능</t>
+  </si>
+  <si>
+    <t>회원 가입 페이지, 유효성 검증 기능 구현 필요</t>
+  </si>
+  <si>
+    <t>회원 정보 확인 기능</t>
+  </si>
+  <si>
+    <t>회원 정보 페이지 구현 필요</t>
+  </si>
+  <si>
+    <t>update_user_info</t>
+  </si>
+  <si>
+    <t>회원 정보 변경 기능</t>
+  </si>
+  <si>
+    <t>회원 정보 수정 페이지, 유효성 검증 기능 구현 필요</t>
+  </si>
+  <si>
+    <t>구매 기록 확인 기능</t>
+  </si>
+  <si>
+    <t>구매 내역 페이지, 주문 정보 표시 기능 구현 필요</t>
+  </si>
+  <si>
+    <t>authenticate_user</t>
+  </si>
+  <si>
+    <t>로그인 기능</t>
+  </si>
+  <si>
+    <t>로그인 페이지, 인증 기능 구현 필요</t>
+  </si>
+  <si>
+    <t>register_admin</t>
+  </si>
+  <si>
+    <t>관리자 권한 분리 기능</t>
+  </si>
+  <si>
+    <t>관리자 페이지 접근 제어 기능 구현 필요</t>
+  </si>
+  <si>
+    <t>상품 구매 기록</t>
+  </si>
+  <si>
+    <t>관리자 페이지 구매 기록 조회 기능 구현 필요</t>
+  </si>
+  <si>
+    <t>add_product</t>
+  </si>
+  <si>
+    <t>상품 업로드 기능</t>
+  </si>
+  <si>
+    <t>상품 등록 페이지, 이미지 업로드 기능 구현 필요</t>
+  </si>
+  <si>
+    <t>fastapi_app.py 51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +297,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -208,8 +332,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -489,17 +625,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDADF75-27B3-4141-8C73-75C09642493C}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B2:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="17.9140625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A6106C-593A-40F1-B8B4-8F6A77776349}">
+  <sheetPr codeName="Sheet10">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="21.08203125" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -508,27 +893,23 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
+      <c r="B3" t="str">
+        <f>'기능구현 함수'!B12</f>
+        <v>register_admin</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'기능구현 함수'!D12</f>
+        <v>관리자 권한 분리 기능</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
@@ -549,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
@@ -557,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
@@ -565,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
@@ -573,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
@@ -581,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
@@ -589,7 +970,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
@@ -597,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
@@ -605,7 +986,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
@@ -613,7 +994,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
@@ -621,7 +1002,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
@@ -629,7 +1010,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
@@ -642,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
@@ -650,7 +1031,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
@@ -658,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
@@ -666,7 +1047,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
@@ -674,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
@@ -682,7 +1063,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
@@ -695,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
@@ -703,7 +1084,7 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
@@ -716,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
@@ -724,7 +1105,7 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
@@ -737,7 +1118,7 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
@@ -745,7 +1126,7 @@
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
@@ -753,7 +1134,7 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
@@ -763,10 +1144,10 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
@@ -774,10 +1155,3294 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FC58AE-2C07-4402-941B-D2B4C8AB630D}">
+  <sheetPr codeName="Sheet11">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" t="str">
+        <f>'기능구현 함수'!B13</f>
+        <v>authenticate_user</v>
+      </c>
+      <c r="D3">
+        <f>'기능구현 함수'!D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
         <v>37</v>
       </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
       <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28D4EB9-BB85-4A31-AE3F-F3EB1718767A}">
+  <sheetPr codeName="Sheet12">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f>'기능구현 함수'!B14</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'기능구현 함수'!D14</f>
+        <v>상품 구매 기록</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C584CBFB-C1C0-41A2-B8F2-750230644FD7}">
+  <sheetPr codeName="Sheet13">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" t="str">
+        <f>'기능구현 함수'!B15</f>
+        <v>add_product</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'기능구현 함수'!D15</f>
+        <v>상품 업로드 기능</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="14.9140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" t="str">
+        <f>'기능구현 함수'!B4</f>
+        <v>get_all_products</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'기능구현 함수'!D4</f>
+        <v>상품 표시 기능</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65130CCC-EB0B-4267-B722-279A2B60AA09}">
+  <sheetPr codeName="Sheet3">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="14.9140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f>'기능구현 함수'!B5</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'기능구현 함수'!D5</f>
+        <v>상품 구매 기능</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F2177C-5E5F-4628-A6AE-A11D57622CFD}">
+  <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f>'기능구현 함수'!B6</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'기능구현 함수'!D6</f>
+        <v>외부 결제 API 연동</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397F5D0C-8A23-43F7-963A-9493B475BB34}">
+  <sheetPr codeName="Sheet5">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" t="str">
+        <f>'기능구현 함수'!B7</f>
+        <v>add_user</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'기능구현 함수'!D7</f>
+        <v>회원 가입 기능</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08B3B48-FFBA-4CE4-B605-1D412409E3E5}">
+  <sheetPr codeName="Sheet6">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f>'기능구현 함수'!B8</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'기능구현 함수'!D8</f>
+        <v>회원 정보 확인 기능</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A2B5F3-1A19-46D7-BFCF-E63FC2A4F9F0}">
+  <sheetPr codeName="Sheet7">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" t="str">
+        <f>'기능구현 함수'!B9</f>
+        <v>update_user_info</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'기능구현 함수'!D9</f>
+        <v>회원 정보 변경 기능</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B333A1-AC5C-4C56-99EC-58C31D03A834}">
+  <sheetPr codeName="Sheet8">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f>'기능구현 함수'!B10</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'기능구현 함수'!D10</f>
+        <v>구매 기록 확인 기능</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6EDD85-E030-4759-846A-440DBBEE43DB}">
+  <sheetPr codeName="Sheet9">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" t="str">
+        <f>'기능구현 함수'!B11</f>
+        <v>authenticate_user</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'기능구현 함수'!D11</f>
+        <v>로그인 기능</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/secure-coding-checklist.xlsx
+++ b/secure-coding-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\barrack\white_hat_school\secure_coding\secure-coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0BBCA2-D8B1-482D-A530-5A333BA4C3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA019FC-0D96-41FF-B5AC-2C87A70D1615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15540" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능구현 함수" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="78">
   <si>
     <t>입력데이터검증및표현</t>
   </si>
@@ -312,12 +312,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -332,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -344,6 +350,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -629,8 +641,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -727,7 +739,7 @@
       <c r="D7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="1"/>
@@ -787,7 +799,7 @@
       <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="1"/>
@@ -803,7 +815,7 @@
       <c r="D12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="3"/>
@@ -817,7 +829,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
@@ -4154,8 +4166,8 @@
   </sheetPr>
   <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4292,7 +4304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -4300,28 +4312,34 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -4329,7 +4347,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4337,7 +4355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>13</v>
       </c>
@@ -4345,20 +4363,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>27</v>
       </c>
@@ -4366,7 +4387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>28</v>
       </c>
@@ -4374,12 +4395,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -4387,7 +4408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>18</v>
       </c>
@@ -4395,12 +4416,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>20</v>
       </c>

--- a/secure-coding-checklist.xlsx
+++ b/secure-coding-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\barrack\white_hat_school\secure_coding\secure-coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA019FC-0D96-41FF-B5AC-2C87A70D1615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD5820B-1D68-4631-A7E7-56404145DB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15540" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능구현 함수" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="78">
   <si>
     <t>입력데이터검증및표현</t>
   </si>
@@ -641,8 +641,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -888,8 +888,8 @@
   </sheetPr>
   <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -942,7 +942,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
@@ -1006,7 +1009,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
@@ -1017,7 +1023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -1025,28 +1031,34 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>13</v>
       </c>
@@ -1070,20 +1082,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>27</v>
       </c>
@@ -1091,7 +1106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>28</v>
       </c>
@@ -1099,12 +1114,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -1112,7 +1127,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>18</v>
       </c>
@@ -1120,12 +1135,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -1133,7 +1148,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -1141,7 +1156,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>22</v>
       </c>
@@ -1149,12 +1164,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>37</v>
       </c>
@@ -1162,14 +1177,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1186,8 +1198,8 @@
   </sheetPr>
   <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1240,7 +1252,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
@@ -1304,7 +1319,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
@@ -1315,7 +1333,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -1323,20 +1341,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1365,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -1352,7 +1373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -1360,28 +1381,34 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>27</v>
       </c>
@@ -1389,7 +1416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>28</v>
       </c>
@@ -1397,12 +1424,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -1410,7 +1437,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>18</v>
       </c>
@@ -1418,12 +1445,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -1431,7 +1458,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -1439,7 +1466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>22</v>
       </c>
@@ -1447,12 +1474,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>37</v>
       </c>
@@ -1460,14 +1487,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2975,7 +2999,7 @@
   <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3028,7 +3052,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
@@ -3103,7 +3130,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -3111,28 +3138,34 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -3140,7 +3173,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -3148,7 +3181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>13</v>
       </c>
@@ -3156,7 +3189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -3164,12 +3197,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>27</v>
       </c>
@@ -3177,7 +3210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>28</v>
       </c>
@@ -3185,12 +3218,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -3198,7 +3231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>18</v>
       </c>
@@ -3206,12 +3239,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -3219,7 +3252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -3227,7 +3260,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>22</v>
       </c>
@@ -3235,12 +3268,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>37</v>
       </c>
@@ -3248,14 +3281,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3273,7 +3303,7 @@
   <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3571,7 +3601,7 @@
   <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4166,8 +4196,8 @@
   </sheetPr>
   <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/secure-coding-checklist.xlsx
+++ b/secure-coding-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\barrack\white_hat_school\secure_coding\secure-coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD5820B-1D68-4631-A7E7-56404145DB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016FD5C7-4E8E-4E07-A07B-41E0820C0965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15540" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능구현 함수" sheetId="2" r:id="rId1"/>
@@ -641,8 +641,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1198,7 +1198,7 @@
   </sheetPr>
   <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/secure-coding-checklist.xlsx
+++ b/secure-coding-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\barrack\white_hat_school\secure_coding\secure-coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016FD5C7-4E8E-4E07-A07B-41E0820C0965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0839A50D-02BB-4691-95FF-880B02F80F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="84">
   <si>
     <t>입력데이터검증및표현</t>
   </si>
@@ -280,6 +280,30 @@
   </si>
   <si>
     <t>fastapi_app.py 51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastapi_app.py 103~126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastapi_app.py  45~52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안 미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastapi._app.py  54~61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastapi_app.py 63 - 101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastapi_app.py  141-145</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,8 +665,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -695,7 +719,7 @@
       <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="1"/>
@@ -769,7 +793,7 @@
       <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="1"/>
@@ -855,7 +879,7 @@
       <c r="D15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="1"/>
@@ -889,14 +913,14 @@
   <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="21.08203125" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -919,9 +943,15 @@
         <f>'기능구현 함수'!B12</f>
         <v>register_admin</v>
       </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
       <c r="D3" t="str">
         <f>'기능구현 함수'!D12</f>
         <v>관리자 권한 분리 기능</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
@@ -1199,7 +1229,7 @@
   <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1229,9 +1259,15 @@
         <f>'기능구현 함수'!B13</f>
         <v>authenticate_user</v>
       </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
       <c r="D3">
         <f>'기능구현 함수'!D13</f>
         <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
@@ -1807,7 +1843,7 @@
   <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1837,9 +1873,15 @@
         <f>'기능구현 함수'!B15</f>
         <v>add_product</v>
       </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
       <c r="D3" t="str">
         <f>'기능구현 함수'!D15</f>
         <v>상품 업로드 기능</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
@@ -2105,7 +2147,7 @@
   <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2135,9 +2177,15 @@
         <f>'기능구현 함수'!B4</f>
         <v>get_all_products</v>
       </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
       <c r="D3" t="str">
         <f>'기능구현 함수'!D4</f>
         <v>상품 표시 기능</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
@@ -2403,7 +2451,7 @@
   <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2436,6 +2484,9 @@
       <c r="D3" t="str">
         <f>'기능구현 함수'!D5</f>
         <v>상품 구매 기능</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
@@ -2701,7 +2752,7 @@
   <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2734,6 +2785,9 @@
       <c r="D3" t="str">
         <f>'기능구현 함수'!D6</f>
         <v>외부 결제 API 연동</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
@@ -2999,7 +3053,7 @@
   <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3029,9 +3083,15 @@
         <f>'기능구현 함수'!B7</f>
         <v>add_user</v>
       </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
       <c r="D3" t="str">
         <f>'기능구현 함수'!D7</f>
         <v>회원 가입 기능</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
@@ -3601,7 +3661,7 @@
   <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3634,6 +3694,14 @@
       <c r="D3" t="str">
         <f>'기능구현 함수'!D9</f>
         <v>회원 정보 변경 기능</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
@@ -4196,7 +4264,7 @@
   </sheetPr>
   <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
